--- a/medicine/Mort/Cimetière_de_Montrouge/Cimetière_de_Montrouge.xlsx
+++ b/medicine/Mort/Cimetière_de_Montrouge/Cimetière_de_Montrouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montrouge</t>
+          <t>Cimetière_de_Montrouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de Montrouge, 14, avenue de la Porte-de-Montrouge, quartier du Petit-Montrouge dans le 14e arrondissement de Paris est créé en 1819 sur le territoire de la commune de Montrouge et est dévolu à son usage, mais il est géographiquement situé dans le sud du 14e arrondissement de Paris depuis l'annexion de l'ancienne zone militaire, en 1925[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de Montrouge, 14, avenue de la Porte-de-Montrouge, quartier du Petit-Montrouge dans le 14e arrondissement de Paris est créé en 1819 sur le territoire de la commune de Montrouge et est dévolu à son usage, mais il est géographiquement situé dans le sud du 14e arrondissement de Paris depuis l'annexion de l'ancienne zone militaire, en 1925.
 Ouvert en 1821, le cimetière de Montrouge est l’unique cimetière parisien à posséder une crypte, attribuée à Henri Decaux, architecte du Beffroi de Montrouge, ornée de bas-reliefs de Louis Sajous et de Marcel Renard; elle se visite.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montrouge</t>
+          <t>Cimetière_de_Montrouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est délimité au nord-ouest par l'avenue de la Porte-de-Châtillon, au nord-est par l'avenue Ernest-Reyer, au sud-est par l'avenue de la Porte-de-Montrouge — qui le sépare du square du Serment-de-Koufra — et au sud-ouest par la tranchée du boulevard périphérique ouverte en contrebas du cimetière.
-Tandis que la tombe la plus visitée est celle de Coluche, on y trouve un grand nombre de tombes dignes d'intérêt[2], ainsi qu'une crypte et une stèle commémorative en granit « Rose de La Clarté » érigée en 2014 à la mémoire de 96 combattants tombés au champ d'honneur durant la Grande Guerre dont les noms y sont gravés en lettres dorées. Les noms d'autres Montrougiens victimes de ce conflit, non inhumés à Montrouge, figurent sur une plaque dans le hall de l'hôtel de ville[3].
+Tandis que la tombe la plus visitée est celle de Coluche, on y trouve un grand nombre de tombes dignes d'intérêt, ainsi qu'une crypte et une stèle commémorative en granit « Rose de La Clarté » érigée en 2014 à la mémoire de 96 combattants tombés au champ d'honneur durant la Grande Guerre dont les noms y sont gravés en lettres dorées. Les noms d'autres Montrougiens victimes de ce conflit, non inhumés à Montrouge, figurent sur une plaque dans le hall de l'hôtel de ville.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Montrouge</t>
+          <t>Cimetière_de_Montrouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
